--- a/issue_506_data_editor/figure_table_mapping.xlsx
+++ b/issue_506_data_editor/figure_table_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdebnath/repo/uieip/issue_506_data_editor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sedona/repo/pandemic_ui_public/issue_506_data_editor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D99687-B11E-9448-A60A-2452B8BFE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D5365-B3B4-614A-BAED-4C0BB14D90D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{0653D740-DFE6-9444-9E17-291B7E690ACC}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="367">
   <si>
     <t>Item</t>
   </si>
@@ -1148,6 +1147,15 @@
   </si>
   <si>
     <t>analysis/source/joint_spend_search_model/inf_horizon_het_results_onset.m (the saved csv is table_alt_job_find_specs.csv); analysis/source/joint_spend_search_model/make_table_alt_job_find_specs.m (Make the table in this script)</t>
+  </si>
+  <si>
+    <t>Reproducible</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835FD595-2BBE-9443-816B-B0B24BFDCE61}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F84" sqref="A1:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,9 +1551,10 @@
     <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,8 +1570,11 @@
       <c r="E1" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1578,8 +1590,11 @@
       <c r="E2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1595,8 +1610,11 @@
       <c r="E3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1612,8 +1630,11 @@
       <c r="E4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1629,8 +1650,11 @@
       <c r="E5" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1646,8 +1670,11 @@
       <c r="E6" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1663,8 +1690,11 @@
       <c r="E7" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +1710,11 @@
       <c r="E8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1697,8 +1730,11 @@
       <c r="E9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1714,8 +1750,11 @@
       <c r="E10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1731,8 +1770,11 @@
       <c r="E11" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1748,8 +1790,11 @@
       <c r="E12" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1765,8 +1810,11 @@
       <c r="E13" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +1830,11 @@
       <c r="E14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1799,8 +1850,11 @@
       <c r="E15" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1816,8 +1870,11 @@
       <c r="E16" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1833,8 +1890,11 @@
       <c r="E17" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1850,8 +1910,11 @@
       <c r="E18" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1867,8 +1930,11 @@
       <c r="E19" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1884,8 +1950,11 @@
       <c r="E20" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -1901,8 +1970,11 @@
       <c r="E21" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1918,8 +1990,11 @@
       <c r="E22" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +2010,11 @@
       <c r="E23" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1952,8 +2030,11 @@
       <c r="E24" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1969,8 +2050,11 @@
       <c r="E25" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2070,11 @@
       <c r="E26" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2090,11 @@
       <c r="E27" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2020,8 +2110,11 @@
       <c r="E28" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2037,8 +2130,11 @@
       <c r="E29" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2054,8 +2150,11 @@
       <c r="E30" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2071,8 +2170,11 @@
       <c r="E31" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2088,8 +2190,11 @@
       <c r="E32" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2105,8 +2210,11 @@
       <c r="E33" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2122,8 +2230,11 @@
       <c r="E34" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2139,8 +2250,11 @@
       <c r="E35" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2156,8 +2270,11 @@
       <c r="E36" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2173,8 +2290,11 @@
       <c r="E37" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2190,8 +2310,11 @@
       <c r="E38" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2207,8 +2330,11 @@
       <c r="E39" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2224,8 +2350,11 @@
       <c r="E40" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2241,8 +2370,11 @@
       <c r="E41" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2258,8 +2390,11 @@
       <c r="E42" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2275,8 +2410,11 @@
       <c r="E43" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2292,8 +2430,11 @@
       <c r="E44" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2309,8 +2450,11 @@
       <c r="E45" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2326,8 +2470,11 @@
       <c r="E46" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2343,8 +2490,11 @@
       <c r="E47" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2360,8 +2510,11 @@
       <c r="E48" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2377,8 +2530,11 @@
       <c r="E49" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2394,8 +2550,11 @@
       <c r="E50" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -2411,8 +2570,11 @@
       <c r="E51" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -2428,8 +2590,11 @@
       <c r="E52" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -2445,8 +2610,11 @@
       <c r="E53" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2462,8 +2630,11 @@
       <c r="E54" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2479,8 +2650,11 @@
       <c r="E55" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2496,8 +2670,11 @@
       <c r="E56" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2513,8 +2690,11 @@
       <c r="E57" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -2530,8 +2710,11 @@
       <c r="E58" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2547,8 +2730,11 @@
       <c r="E59" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2564,8 +2750,11 @@
       <c r="E60" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2581,8 +2770,11 @@
       <c r="E61" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2598,8 +2790,11 @@
       <c r="E62" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2615,8 +2810,11 @@
       <c r="E63" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2632,8 +2830,11 @@
       <c r="E64" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2649,8 +2850,11 @@
       <c r="E65" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2666,8 +2870,11 @@
       <c r="E66" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -2683,8 +2890,11 @@
       <c r="E67" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -2700,8 +2910,11 @@
       <c r="E68" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2717,8 +2930,11 @@
       <c r="E69" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -2734,8 +2950,11 @@
       <c r="E70" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -2751,8 +2970,11 @@
       <c r="E71" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2768,8 +2990,11 @@
       <c r="E72" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2785,8 +3010,11 @@
       <c r="E73" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2802,8 +3030,11 @@
       <c r="E74" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2819,8 +3050,11 @@
       <c r="E75" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -2836,8 +3070,11 @@
       <c r="E76" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2853,8 +3090,11 @@
       <c r="E77" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2870,8 +3110,11 @@
       <c r="E78" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2887,8 +3130,11 @@
       <c r="E79" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2904,8 +3150,11 @@
       <c r="E80" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2921,8 +3170,11 @@
       <c r="E81" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>245</v>
       </c>
@@ -2938,8 +3190,11 @@
       <c r="E82" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -2955,8 +3210,11 @@
       <c r="E83" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2971,6 +3229,9 @@
       </c>
       <c r="E84" t="s">
         <v>345</v>
+      </c>
+      <c r="F84" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
